--- a/medicine/Sexualité et sexologie/Balance_ton_quoi/Balance_ton_quoi.xlsx
+++ b/medicine/Sexualité et sexologie/Balance_ton_quoi/Balance_ton_quoi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Balance ton quoi est une chanson féministe de l'auteure-compositrice-interprète belge Angèle. Sortie le 5 octobre 2018 en tant que sixième single de son premier album Brol, elle dénonce le sexisme. Le titre fait référence au mouvement #BalanceTonPorc[1].
-Le single s'est classé en première position des classements en France, en Suisse romande et en Wallonie et a atteint le top 20 en Flandre et le top 50 en Suisse alémanique. Il a été certifié triple disque de platine en Belgique[2] et disque de diamant en France[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Balance ton quoi est une chanson féministe de l'auteure-compositrice-interprète belge Angèle. Sortie le 5 octobre 2018 en tant que sixième single de son premier album Brol, elle dénonce le sexisme. Le titre fait référence au mouvement #BalanceTonPorc.
+Le single s'est classé en première position des classements en France, en Suisse romande et en Wallonie et a atteint le top 20 en Flandre et le top 50 en Suisse alémanique. Il a été certifié triple disque de platine en Belgique et disque de diamant en France.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Paroles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La musique et les paroles engagées d'Angèle, à la fois humoristiques, candides et incisives, font le procès du sexisme ordinaire culturel contemporain, et soutiennent l'idée que l'éducation est le meilleur moyen de lutter contre ce dernier[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La musique et les paroles engagées d'Angèle, à la fois humoristiques, candides et incisives, font le procès du sexisme ordinaire culturel contemporain, et soutiennent l'idée que l'éducation est le meilleur moyen de lutter contre ce dernier.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Clip vidéo</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le clip est réalisé par la photographe-réalisatrice Charlotte Abramow et sort le 15 avril 2019 sur la plateforme YouTube. 
-Angèle y apparaît avec son chaton en poupée de collection adolescente en robe de princesse de conte de fée haute couture Viktor &amp; Rolf (avec les inscriptions « Go Fuck Yourself », « Va te faire foutre » en anglais, inscrit dans des cœurs)[5] devant le château de Neufmoutiers-en-Brie[6]. Elle apparaît ensuite successivement en juge, avocate, victime, et témoin... d'un tribunal d'affaires sexistes, puis en psychologue-coach-thérapeute-éducatrice de thérapie de groupe du centre de formation anti-sexiste du château de Neufmoutiers-en-Brie (« Anti-Sexism Academy ») pour sexistes condamnés (elle anime entre autres un débat thérapeutique sur le consentement sexuel avec les condamnés Antoine Gouy et Pierre Niney, avec la question en anglais au tableau : « what if she says no…? » (« que faire si elle dit non… ? ») avant que ce dernier (bon élève) ne devienne à son tour éducateur de l'« Anti-Sexism Academy » à la fin de sa thérapie et du clip[7],[8],[9],[10],[11],[12].
+Angèle y apparaît avec son chaton en poupée de collection adolescente en robe de princesse de conte de fée haute couture Viktor &amp; Rolf (avec les inscriptions « Go Fuck Yourself », « Va te faire foutre » en anglais, inscrit dans des cœurs) devant le château de Neufmoutiers-en-Brie. Elle apparaît ensuite successivement en juge, avocate, victime, et témoin... d'un tribunal d'affaires sexistes, puis en psychologue-coach-thérapeute-éducatrice de thérapie de groupe du centre de formation anti-sexiste du château de Neufmoutiers-en-Brie (« Anti-Sexism Academy ») pour sexistes condamnés (elle anime entre autres un débat thérapeutique sur le consentement sexuel avec les condamnés Antoine Gouy et Pierre Niney, avec la question en anglais au tableau : « what if she says no…? » (« que faire si elle dit non… ? ») avant que ce dernier (bon élève) ne devienne à son tour éducateur de l'« Anti-Sexism Academy » à la fin de sa thérapie et du clip.
 </t>
         </is>
       </c>
@@ -572,43 +588,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Classements et certifications</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Certifications</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Balance_ton_quoi</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Sexualité et sexologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Balance_ton_quoi</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
           <t>Reprises et adaptations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2019 : reprise et adaptée par les Molem Sisters[28], contre l'islamophobie[29].
-2019 : reprise et adaptée par la Société protectrice des animaux (SPA) de Gennevilliers, sous le titre N'le balance pas[30], pour militer contre l'abandon des animaux de compagnie[31].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2019 : reprise et adaptée par les Molem Sisters, contre l'islamophobie.
+2019 : reprise et adaptée par la Société protectrice des animaux (SPA) de Gennevilliers, sous le titre N'le balance pas, pour militer contre l'abandon des animaux de compagnie.</t>
         </is>
       </c>
     </row>
